--- a/data/pca/factorExposure/factorExposure_2014-08-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.003918752752411095</v>
+        <v>0.01868152422791904</v>
       </c>
       <c r="C2">
-        <v>-0.1142143619112968</v>
+        <v>0.06923976094687806</v>
       </c>
       <c r="D2">
-        <v>-0.03348331877904846</v>
+        <v>0.03177447592101685</v>
       </c>
       <c r="E2">
-        <v>0.2276720931642288</v>
+        <v>-0.03320465905697135</v>
       </c>
       <c r="F2">
-        <v>0.03937094623744164</v>
+        <v>-0.151471893818859</v>
       </c>
       <c r="G2">
-        <v>0.04651187198803925</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05167215905468189</v>
+      </c>
+      <c r="H2">
+        <v>0.002576277053451711</v>
+      </c>
+      <c r="I2">
+        <v>0.0933760743411377</v>
+      </c>
+      <c r="J2">
+        <v>-0.09114264013021432</v>
+      </c>
+      <c r="K2">
+        <v>0.06605446714435828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01481842333089303</v>
+        <v>0.01861907490873643</v>
       </c>
       <c r="C4">
-        <v>-0.1649438175356134</v>
+        <v>0.1452244045036897</v>
       </c>
       <c r="D4">
-        <v>-0.0368579627085531</v>
+        <v>0.06486899981489462</v>
       </c>
       <c r="E4">
-        <v>0.0458630014329464</v>
+        <v>0.03783697152085929</v>
       </c>
       <c r="F4">
-        <v>-0.06279558263201843</v>
+        <v>-0.05045974776589533</v>
       </c>
       <c r="G4">
-        <v>-0.03192074410501197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.028804527634412</v>
+      </c>
+      <c r="H4">
+        <v>-0.03869766655608373</v>
+      </c>
+      <c r="I4">
+        <v>0.1005041443299879</v>
+      </c>
+      <c r="J4">
+        <v>0.02630401281525584</v>
+      </c>
+      <c r="K4">
+        <v>-0.007295568896439327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.01978510719906279</v>
+        <v>0.03824879802510913</v>
       </c>
       <c r="C6">
-        <v>-0.07855380765831718</v>
+        <v>0.08654801986589861</v>
       </c>
       <c r="D6">
-        <v>-0.05807602008332728</v>
+        <v>0.0270510068879714</v>
       </c>
       <c r="E6">
-        <v>0.05509713940969936</v>
+        <v>-0.02182216138048926</v>
       </c>
       <c r="F6">
-        <v>-0.007945321064825941</v>
+        <v>-0.04418959738216677</v>
       </c>
       <c r="G6">
-        <v>-0.05021880585675369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.06230067064213784</v>
+      </c>
+      <c r="H6">
+        <v>-0.04621362285543661</v>
+      </c>
+      <c r="I6">
+        <v>-0.003622533228757592</v>
+      </c>
+      <c r="J6">
+        <v>0.03461561139579736</v>
+      </c>
+      <c r="K6">
+        <v>0.05049111128422354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.0007922803536905334</v>
+        <v>0.01841582459895667</v>
       </c>
       <c r="C7">
-        <v>-0.06225119841140015</v>
+        <v>0.07007391824369706</v>
       </c>
       <c r="D7">
-        <v>-0.03581000691092644</v>
+        <v>0.03054526547206954</v>
       </c>
       <c r="E7">
-        <v>0.01233783883226188</v>
+        <v>0.0185387326794484</v>
       </c>
       <c r="F7">
-        <v>-0.02673816641335875</v>
+        <v>0.004003128257823664</v>
       </c>
       <c r="G7">
-        <v>-0.02986713621132765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.007510902381194882</v>
+      </c>
+      <c r="H7">
+        <v>-0.04090713895566565</v>
+      </c>
+      <c r="I7">
+        <v>0.09617787159677411</v>
+      </c>
+      <c r="J7">
+        <v>-0.01187760059601483</v>
+      </c>
+      <c r="K7">
+        <v>0.0230611959091909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01324048042098817</v>
+        <v>0.001434479289256019</v>
       </c>
       <c r="C8">
-        <v>-0.07137948909152797</v>
+        <v>0.06164137836124686</v>
       </c>
       <c r="D8">
-        <v>-0.0462758790096508</v>
+        <v>0.04693678671870492</v>
       </c>
       <c r="E8">
-        <v>0.05715871857403883</v>
+        <v>0.01003386676254389</v>
       </c>
       <c r="F8">
-        <v>-0.009699167055726814</v>
+        <v>-0.06133014752636917</v>
       </c>
       <c r="G8">
-        <v>0.00939417364992234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02386580686658671</v>
+      </c>
+      <c r="H8">
+        <v>0.01354894220209655</v>
+      </c>
+      <c r="I8">
+        <v>0.04364904417545449</v>
+      </c>
+      <c r="J8">
+        <v>0.04030505681074376</v>
+      </c>
+      <c r="K8">
+        <v>-0.0162153786574376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.007180795013556772</v>
+        <v>0.01361677644162967</v>
       </c>
       <c r="C9">
-        <v>-0.1164618792447035</v>
+        <v>0.1029868710931695</v>
       </c>
       <c r="D9">
-        <v>-0.04870924262131646</v>
+        <v>0.0402600089781502</v>
       </c>
       <c r="E9">
-        <v>0.01009038251915555</v>
+        <v>0.007879677009619444</v>
       </c>
       <c r="F9">
-        <v>-0.004960805816883514</v>
+        <v>-0.02751174544849238</v>
       </c>
       <c r="G9">
-        <v>-0.04116406032241144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02819474475975268</v>
+      </c>
+      <c r="H9">
+        <v>-0.02564776925838324</v>
+      </c>
+      <c r="I9">
+        <v>0.1106364322956817</v>
+      </c>
+      <c r="J9">
+        <v>0.01589104593514073</v>
+      </c>
+      <c r="K9">
+        <v>0.01513752753632739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2731831509536229</v>
+        <v>0.2504335580940265</v>
       </c>
       <c r="C10">
-        <v>0.06510241732226336</v>
+        <v>-0.09077651718031957</v>
       </c>
       <c r="D10">
-        <v>0.01834883116017507</v>
+        <v>-0.004921216274153503</v>
       </c>
       <c r="E10">
-        <v>-0.02922441531506203</v>
+        <v>-0.003447815534471614</v>
       </c>
       <c r="F10">
-        <v>-0.01057579853437278</v>
+        <v>0.002812914686589688</v>
       </c>
       <c r="G10">
-        <v>-0.01111760781257172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0529527809528447</v>
+      </c>
+      <c r="H10">
+        <v>-0.02500357543378834</v>
+      </c>
+      <c r="I10">
+        <v>0.01855137516536455</v>
+      </c>
+      <c r="J10">
+        <v>0.01642482915029573</v>
+      </c>
+      <c r="K10">
+        <v>-0.1762834680665374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.00231839641070725</v>
+        <v>0.01654318681713154</v>
       </c>
       <c r="C11">
-        <v>-0.06698824503332025</v>
+        <v>0.08107982357239722</v>
       </c>
       <c r="D11">
-        <v>-0.03005054686165099</v>
+        <v>0.03784713452219739</v>
       </c>
       <c r="E11">
-        <v>-0.02660471631531389</v>
+        <v>0.002904608161444364</v>
       </c>
       <c r="F11">
-        <v>-0.006628713543164882</v>
+        <v>0.01262747865243905</v>
       </c>
       <c r="G11">
-        <v>-0.03984138020777395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.005416029235602055</v>
+      </c>
+      <c r="H11">
+        <v>-0.0134361537784659</v>
+      </c>
+      <c r="I11">
+        <v>0.03189398784614579</v>
+      </c>
+      <c r="J11">
+        <v>0.01369598366486803</v>
+      </c>
+      <c r="K11">
+        <v>0.02566030275507318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.0003743184376659696</v>
+        <v>0.01567229649547177</v>
       </c>
       <c r="C12">
-        <v>-0.04376343799308004</v>
+        <v>0.05346581184582478</v>
       </c>
       <c r="D12">
-        <v>-0.03580304725599887</v>
+        <v>0.02531579782522503</v>
       </c>
       <c r="E12">
-        <v>-0.01994410005852993</v>
+        <v>-0.01825509108127453</v>
       </c>
       <c r="F12">
-        <v>0.02285666644830196</v>
+        <v>0.00601251644220599</v>
       </c>
       <c r="G12">
-        <v>-0.04728868949231774</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.005389749429821253</v>
+      </c>
+      <c r="H12">
+        <v>-0.02736157384592611</v>
+      </c>
+      <c r="I12">
+        <v>0.02541977557030685</v>
+      </c>
+      <c r="J12">
+        <v>0.02168684989120494</v>
+      </c>
+      <c r="K12">
+        <v>0.01191675246030949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.005923715673805381</v>
+        <v>0.003728270850963574</v>
       </c>
       <c r="C13">
-        <v>-0.122957632331829</v>
+        <v>0.1145210977900883</v>
       </c>
       <c r="D13">
-        <v>-0.08576907072913531</v>
+        <v>0.04077697958731921</v>
       </c>
       <c r="E13">
-        <v>0.04154348337455225</v>
+        <v>-0.09141349132596495</v>
       </c>
       <c r="F13">
-        <v>0.06264139599056179</v>
+        <v>-0.1301605463748614</v>
       </c>
       <c r="G13">
-        <v>-0.1532658447824019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.001908375602000813</v>
+      </c>
+      <c r="H13">
+        <v>-0.1453658727137399</v>
+      </c>
+      <c r="I13">
+        <v>0.138298315361009</v>
+      </c>
+      <c r="J13">
+        <v>-0.1816530007329195</v>
+      </c>
+      <c r="K13">
+        <v>-0.1140313400252291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.006135986786967186</v>
+        <v>0.02020065604032564</v>
       </c>
       <c r="C14">
-        <v>-0.07334339920142392</v>
+        <v>0.07445558842448685</v>
       </c>
       <c r="D14">
-        <v>-0.0431611593246226</v>
+        <v>0.04778535913871067</v>
       </c>
       <c r="E14">
-        <v>0.02050741524202845</v>
+        <v>-0.03453559837807939</v>
       </c>
       <c r="F14">
-        <v>0.03119118434878151</v>
+        <v>-0.01665843132299998</v>
       </c>
       <c r="G14">
-        <v>-0.08532938452025818</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.05983885896151636</v>
+      </c>
+      <c r="H14">
+        <v>-0.1101479898873326</v>
+      </c>
+      <c r="I14">
+        <v>0.1795163553906274</v>
+      </c>
+      <c r="J14">
+        <v>0.01091909990014967</v>
+      </c>
+      <c r="K14">
+        <v>0.01087369931239143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.003303027117825607</v>
+        <v>0.004776640276581719</v>
       </c>
       <c r="C15">
-        <v>-0.09378531696539423</v>
+        <v>0.08200083882865794</v>
       </c>
       <c r="D15">
-        <v>-0.05167210694646369</v>
+        <v>0.03498721740372315</v>
       </c>
       <c r="E15">
-        <v>0.0330130945354315</v>
+        <v>0.01492338555378011</v>
       </c>
       <c r="F15">
-        <v>-0.005222820414885867</v>
+        <v>-0.0252860667893946</v>
       </c>
       <c r="G15">
-        <v>-0.03954602773693604</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.01097656977530367</v>
+      </c>
+      <c r="H15">
+        <v>-0.03704783265114773</v>
+      </c>
+      <c r="I15">
+        <v>0.08745159710811914</v>
+      </c>
+      <c r="J15">
+        <v>0.021723849477687</v>
+      </c>
+      <c r="K15">
+        <v>0.01378280109623502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.006092376914840666</v>
+        <v>0.01553415501849942</v>
       </c>
       <c r="C16">
-        <v>-0.05659089124888497</v>
+        <v>0.06089113240855447</v>
       </c>
       <c r="D16">
-        <v>-0.02681803827234315</v>
+        <v>0.02650831711048375</v>
       </c>
       <c r="E16">
-        <v>-0.0173800675011993</v>
+        <v>-0.0002274895565424918</v>
       </c>
       <c r="F16">
-        <v>0.00901752797206485</v>
+        <v>0.00853053022368204</v>
       </c>
       <c r="G16">
-        <v>-0.0241862034294558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005359165339354739</v>
+      </c>
+      <c r="H16">
+        <v>-0.01061207930656701</v>
+      </c>
+      <c r="I16">
+        <v>0.02128215877011883</v>
+      </c>
+      <c r="J16">
+        <v>0.0115122506557304</v>
+      </c>
+      <c r="K16">
+        <v>0.01764739928871987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.007500902949878193</v>
+        <v>0.01591899917595864</v>
       </c>
       <c r="C20">
-        <v>-0.08734163261270603</v>
+        <v>0.08537737318389639</v>
       </c>
       <c r="D20">
-        <v>-0.040004649196929</v>
+        <v>0.02624372038433481</v>
       </c>
       <c r="E20">
-        <v>-0.03385417499257819</v>
+        <v>0.02515498811379109</v>
       </c>
       <c r="F20">
-        <v>0.003895234786097071</v>
+        <v>0.01183767185126525</v>
       </c>
       <c r="G20">
-        <v>-0.09680250619980883</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.0268284222831889</v>
+      </c>
+      <c r="H20">
+        <v>-0.04575312537163925</v>
+      </c>
+      <c r="I20">
+        <v>0.05987886808960342</v>
+      </c>
+      <c r="J20">
+        <v>0.01797984953981333</v>
+      </c>
+      <c r="K20">
+        <v>0.01301380183595588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.0005624535582605008</v>
+        <v>0.01304802963266938</v>
       </c>
       <c r="C21">
-        <v>-0.09146885193469403</v>
+        <v>0.0696247761474971</v>
       </c>
       <c r="D21">
-        <v>0.01015980619118477</v>
+        <v>0.01868171438733797</v>
       </c>
       <c r="E21">
-        <v>0.02901933731617325</v>
+        <v>-0.0748083214351012</v>
       </c>
       <c r="F21">
-        <v>0.05913373417271978</v>
+        <v>-0.04255255174768272</v>
       </c>
       <c r="G21">
-        <v>-0.02412875746262694</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05478800952976585</v>
+      </c>
+      <c r="H21">
+        <v>-0.03448688078996132</v>
+      </c>
+      <c r="I21">
+        <v>0.1376543869307253</v>
+      </c>
+      <c r="J21">
+        <v>-0.03807487798486338</v>
+      </c>
+      <c r="K21">
+        <v>0.003153606805678169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.009880536201603209</v>
+        <v>0.005292568455518159</v>
       </c>
       <c r="C22">
-        <v>-0.2428561184708276</v>
+        <v>0.172825164469434</v>
       </c>
       <c r="D22">
-        <v>0.07340421002841896</v>
+        <v>0.01898500028051694</v>
       </c>
       <c r="E22">
-        <v>0.317475443583956</v>
+        <v>0.1795150914930229</v>
       </c>
       <c r="F22">
-        <v>-0.3205936636928317</v>
+        <v>-0.4817598430829814</v>
       </c>
       <c r="G22">
-        <v>0.04923533707570741</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.1723001593412818</v>
+      </c>
+      <c r="H22">
+        <v>0.02802786394850601</v>
+      </c>
+      <c r="I22">
+        <v>-0.2971020579672791</v>
+      </c>
+      <c r="J22">
+        <v>-0.05048725619777839</v>
+      </c>
+      <c r="K22">
+        <v>0.003640171684344481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.01079478936524188</v>
+        <v>0.01047350199490524</v>
       </c>
       <c r="C23">
-        <v>-0.2470144061658051</v>
+        <v>0.1764818578661229</v>
       </c>
       <c r="D23">
-        <v>0.0779865707757454</v>
+        <v>0.01868322137533579</v>
       </c>
       <c r="E23">
-        <v>0.3122304688898712</v>
+        <v>0.1720538601771511</v>
       </c>
       <c r="F23">
-        <v>-0.3157355404401614</v>
+        <v>-0.468003657144579</v>
       </c>
       <c r="G23">
-        <v>0.04935449180593153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.170230785993882</v>
+      </c>
+      <c r="H23">
+        <v>0.02466985555737128</v>
+      </c>
+      <c r="I23">
+        <v>-0.2746821179418047</v>
+      </c>
+      <c r="J23">
+        <v>-0.04335655318629088</v>
+      </c>
+      <c r="K23">
+        <v>0.008375682642190314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.0005508873972000915</v>
+        <v>0.01615465130070033</v>
       </c>
       <c r="C24">
-        <v>-0.05462043425493984</v>
+        <v>0.06401013827676931</v>
       </c>
       <c r="D24">
-        <v>-0.04143443147431453</v>
+        <v>0.0396941943081</v>
       </c>
       <c r="E24">
-        <v>-0.0219733155903601</v>
+        <v>0.002453370556891371</v>
       </c>
       <c r="F24">
-        <v>-0.0006052085236388896</v>
+        <v>0.007927873607849956</v>
       </c>
       <c r="G24">
-        <v>-0.05041113758730788</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.003484240913236994</v>
+      </c>
+      <c r="H24">
+        <v>-0.02831849212306875</v>
+      </c>
+      <c r="I24">
+        <v>0.0398749742486142</v>
+      </c>
+      <c r="J24">
+        <v>0.0103409201052565</v>
+      </c>
+      <c r="K24">
+        <v>0.02353302990620317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.001345264329632775</v>
+        <v>0.02018371841024606</v>
       </c>
       <c r="C25">
-        <v>-0.06463750618359236</v>
+        <v>0.06753133206830039</v>
       </c>
       <c r="D25">
-        <v>-0.02238283296862907</v>
+        <v>0.03240364907460408</v>
       </c>
       <c r="E25">
-        <v>-0.02598525303975643</v>
+        <v>0.00196427590836263</v>
       </c>
       <c r="F25">
-        <v>0.002601420484693797</v>
+        <v>0.007122962574128979</v>
       </c>
       <c r="G25">
-        <v>-0.05201923294585439</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.009654595095169799</v>
+      </c>
+      <c r="H25">
+        <v>-0.02270305147434615</v>
+      </c>
+      <c r="I25">
+        <v>0.03674068315926474</v>
+      </c>
+      <c r="J25">
+        <v>0.0118154374872645</v>
+      </c>
+      <c r="K25">
+        <v>0.00711334149526777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.0004486498792235972</v>
+        <v>0.02263947821986459</v>
       </c>
       <c r="C26">
-        <v>-0.04479257507051281</v>
+        <v>0.05633058944374578</v>
       </c>
       <c r="D26">
-        <v>-0.07077060777885653</v>
+        <v>0.06198180822081048</v>
       </c>
       <c r="E26">
-        <v>0.002831542022796012</v>
+        <v>0.0009813041249312942</v>
       </c>
       <c r="F26">
-        <v>0.03758325175419824</v>
+        <v>0.01768044017005296</v>
       </c>
       <c r="G26">
-        <v>-0.04057429743598154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.01115410903209989</v>
+      </c>
+      <c r="H26">
+        <v>-0.01352393991569127</v>
+      </c>
+      <c r="I26">
+        <v>0.1161354695734514</v>
+      </c>
+      <c r="J26">
+        <v>-0.004313073412720685</v>
+      </c>
+      <c r="K26">
+        <v>0.06381179841608875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3681326863289953</v>
+        <v>0.3126819942160191</v>
       </c>
       <c r="C28">
-        <v>0.07715762274786341</v>
+        <v>-0.1082461510797877</v>
       </c>
       <c r="D28">
-        <v>0.0143351982528127</v>
+        <v>-0.03278523875112506</v>
       </c>
       <c r="E28">
-        <v>-0.04866143139922243</v>
+        <v>0.005373157470080815</v>
       </c>
       <c r="F28">
-        <v>0.05715453541450345</v>
+        <v>-0.05229070277203035</v>
       </c>
       <c r="G28">
-        <v>0.08296167216247925</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01077119084006693</v>
+      </c>
+      <c r="H28">
+        <v>0.1052631019782968</v>
+      </c>
+      <c r="I28">
+        <v>0.0775358888290797</v>
+      </c>
+      <c r="J28">
+        <v>-0.07803058854800689</v>
+      </c>
+      <c r="K28">
+        <v>-0.1959404739165183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.005761305328666847</v>
+        <v>0.01579830355296696</v>
       </c>
       <c r="C29">
-        <v>-0.08087104711496136</v>
+        <v>0.08408494047077618</v>
       </c>
       <c r="D29">
-        <v>-0.04913903229654341</v>
+        <v>0.05050885216853777</v>
       </c>
       <c r="E29">
-        <v>0.004350827211221799</v>
+        <v>-0.03931559171816993</v>
       </c>
       <c r="F29">
-        <v>0.03583073916745651</v>
+        <v>-0.01896173157843842</v>
       </c>
       <c r="G29">
-        <v>-0.1249669997966096</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.06355266656455558</v>
+      </c>
+      <c r="H29">
+        <v>-0.1629563426691645</v>
+      </c>
+      <c r="I29">
+        <v>0.2594750825833708</v>
+      </c>
+      <c r="J29">
+        <v>0.01945946810469874</v>
+      </c>
+      <c r="K29">
+        <v>-0.006911568754757722</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.01593777927477113</v>
+        <v>0.03200448749328239</v>
       </c>
       <c r="C30">
-        <v>-0.1669547280033495</v>
+        <v>0.1432530982617002</v>
       </c>
       <c r="D30">
-        <v>-0.06779537218633673</v>
+        <v>0.05496432297940292</v>
       </c>
       <c r="E30">
-        <v>0.02720076597881267</v>
+        <v>0.02894565154246478</v>
       </c>
       <c r="F30">
-        <v>-0.04884427722480222</v>
+        <v>-0.05316065201851613</v>
       </c>
       <c r="G30">
-        <v>-0.01839669305094598</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01562884703153423</v>
+      </c>
+      <c r="H30">
+        <v>-0.01331170595309867</v>
+      </c>
+      <c r="I30">
+        <v>0.03208919339502805</v>
+      </c>
+      <c r="J30">
+        <v>0.0242983848369787</v>
+      </c>
+      <c r="K30">
+        <v>0.04941672654883649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.004262056234739599</v>
+        <v>0.01452007131194563</v>
       </c>
       <c r="C31">
-        <v>-0.05366327248810924</v>
+        <v>0.07914635223334245</v>
       </c>
       <c r="D31">
-        <v>-0.03507508049555344</v>
+        <v>0.04123019875035076</v>
       </c>
       <c r="E31">
-        <v>-0.02441252805672158</v>
+        <v>-0.001439131279916101</v>
       </c>
       <c r="F31">
-        <v>0.01425167852951366</v>
+        <v>-0.0009617634574933059</v>
       </c>
       <c r="G31">
-        <v>-0.01761508596456864</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.001969648975208578</v>
+      </c>
+      <c r="H31">
+        <v>0.01923821226188385</v>
+      </c>
+      <c r="I31">
+        <v>0.04147641974554096</v>
+      </c>
+      <c r="J31">
+        <v>0.01640832096290187</v>
+      </c>
+      <c r="K31">
+        <v>0.003422984426129719</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.01696334608224388</v>
+        <v>0.02159402297241248</v>
       </c>
       <c r="C32">
-        <v>-0.07506020199579841</v>
+        <v>0.05137215220225824</v>
       </c>
       <c r="D32">
-        <v>-0.006468909932753771</v>
+        <v>0.02416958973425237</v>
       </c>
       <c r="E32">
-        <v>0.1462270613656658</v>
+        <v>-0.03913262960886181</v>
       </c>
       <c r="F32">
-        <v>-0.004487068495297796</v>
+        <v>-0.1098957053024633</v>
       </c>
       <c r="G32">
-        <v>-0.08901615936943871</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01945908452849779</v>
+      </c>
+      <c r="H32">
+        <v>-0.09244300716501049</v>
+      </c>
+      <c r="I32">
+        <v>0.1635364189910988</v>
+      </c>
+      <c r="J32">
+        <v>-0.1104663091083378</v>
+      </c>
+      <c r="K32">
+        <v>-0.2298836806307418</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.007604549234654987</v>
+        <v>0.01704410744992524</v>
       </c>
       <c r="C33">
-        <v>-0.09054383459268031</v>
+        <v>0.1032548327359037</v>
       </c>
       <c r="D33">
-        <v>-0.06449920570869641</v>
+        <v>0.05178225028213799</v>
       </c>
       <c r="E33">
-        <v>0.004118315232662191</v>
+        <v>0.01198980067968817</v>
       </c>
       <c r="F33">
-        <v>0.01185962230424712</v>
+        <v>-0.01616156194131564</v>
       </c>
       <c r="G33">
-        <v>-0.04407231669468464</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.004106941627142924</v>
+      </c>
+      <c r="H33">
+        <v>-0.03389345308582269</v>
+      </c>
+      <c r="I33">
+        <v>0.05448511307027022</v>
+      </c>
+      <c r="J33">
+        <v>-0.002879523945855477</v>
+      </c>
+      <c r="K33">
+        <v>-0.02156218201425223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.0006347233601205632</v>
+        <v>0.01701772083605941</v>
       </c>
       <c r="C34">
-        <v>-0.048169943617335</v>
+        <v>0.04868585570556713</v>
       </c>
       <c r="D34">
-        <v>-0.02048897506741725</v>
+        <v>0.01998889238617528</v>
       </c>
       <c r="E34">
-        <v>-0.008326397103353419</v>
+        <v>-0.00524287997117435</v>
       </c>
       <c r="F34">
-        <v>0.02472182583218303</v>
+        <v>0.008266320889322892</v>
       </c>
       <c r="G34">
-        <v>-0.03760518739489381</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.007364469557000951</v>
+      </c>
+      <c r="H34">
+        <v>-0.01787969668724977</v>
+      </c>
+      <c r="I34">
+        <v>-0.001602614657690327</v>
+      </c>
+      <c r="J34">
+        <v>0.02776449825796776</v>
+      </c>
+      <c r="K34">
+        <v>0.004107795376570341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.001956671836968739</v>
+        <v>0.01023104055465912</v>
       </c>
       <c r="C35">
-        <v>-0.02827901435522746</v>
+        <v>0.04554514035237993</v>
       </c>
       <c r="D35">
-        <v>-0.008444692032781904</v>
+        <v>0.02139444943814848</v>
       </c>
       <c r="E35">
-        <v>0.001664568710950105</v>
+        <v>-0.006163789074217361</v>
       </c>
       <c r="F35">
-        <v>0.008967502929346402</v>
+        <v>-0.0116264153640272</v>
       </c>
       <c r="G35">
-        <v>-0.04253743356672983</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.03441186687214833</v>
+      </c>
+      <c r="H35">
+        <v>-0.06956738549340126</v>
+      </c>
+      <c r="I35">
+        <v>0.1384539775727339</v>
+      </c>
+      <c r="J35">
+        <v>0.04225961943420526</v>
+      </c>
+      <c r="K35">
+        <v>-0.0352820621191726</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.00480281359291645</v>
+        <v>0.01439555625689712</v>
       </c>
       <c r="C36">
-        <v>-0.04992370529989463</v>
+        <v>0.04699852220372192</v>
       </c>
       <c r="D36">
-        <v>-0.05664135132332446</v>
+        <v>0.04369046301646608</v>
       </c>
       <c r="E36">
-        <v>-0.006369848019519641</v>
+        <v>0.004796602932780536</v>
       </c>
       <c r="F36">
-        <v>0.01576141474792571</v>
+        <v>-0.009730262575388293</v>
       </c>
       <c r="G36">
-        <v>-0.03141112337556248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.001820513754075759</v>
+      </c>
+      <c r="H36">
+        <v>-0.01057747807880668</v>
+      </c>
+      <c r="I36">
+        <v>0.08531220670614846</v>
+      </c>
+      <c r="J36">
+        <v>-0.0121704046615561</v>
+      </c>
+      <c r="K36">
+        <v>0.02004020024600981</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.03014924869972246</v>
+        <v>0.009870701026146116</v>
       </c>
       <c r="C38">
-        <v>-0.05835764061053538</v>
+        <v>0.05964689060177161</v>
       </c>
       <c r="D38">
-        <v>-0.04664274812550114</v>
+        <v>0.03934254954787798</v>
       </c>
       <c r="E38">
-        <v>-0.02152833001601213</v>
+        <v>0.04239263095676015</v>
       </c>
       <c r="F38">
-        <v>0.003717798678296518</v>
+        <v>-0.0171735351654229</v>
       </c>
       <c r="G38">
-        <v>-0.04619356088135512</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.04050095079276134</v>
+      </c>
+      <c r="H38">
+        <v>-0.02396764109058165</v>
+      </c>
+      <c r="I38">
+        <v>0.0705598480405899</v>
+      </c>
+      <c r="J38">
+        <v>-0.03537826366419678</v>
+      </c>
+      <c r="K38">
+        <v>-0.0627646621755361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.002185554742559735</v>
+        <v>0.02349481408631984</v>
       </c>
       <c r="C39">
-        <v>-0.1242435874864912</v>
+        <v>0.1330647858451293</v>
       </c>
       <c r="D39">
-        <v>-0.05803614360711966</v>
+        <v>0.05950269776873456</v>
       </c>
       <c r="E39">
-        <v>-0.01381473779517343</v>
+        <v>-0.007317568232954212</v>
       </c>
       <c r="F39">
-        <v>0.009622198430447123</v>
+        <v>0.009075292929609537</v>
       </c>
       <c r="G39">
-        <v>-0.07383126311508885</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03743431117714088</v>
+      </c>
+      <c r="H39">
+        <v>-0.0422713210188853</v>
+      </c>
+      <c r="I39">
+        <v>0.02265306947838431</v>
+      </c>
+      <c r="J39">
+        <v>0.03615736260575934</v>
+      </c>
+      <c r="K39">
+        <v>0.09056583401843522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.002279116832823154</v>
+        <v>0.01374262665657674</v>
       </c>
       <c r="C40">
-        <v>-0.0290854545287877</v>
+        <v>0.05508155748977509</v>
       </c>
       <c r="D40">
-        <v>-0.02687952972442003</v>
+        <v>0.04252411666815247</v>
       </c>
       <c r="E40">
-        <v>0.1208196862403963</v>
+        <v>-0.02407015739764438</v>
       </c>
       <c r="F40">
-        <v>-0.06318718605703719</v>
+        <v>-0.03453151345564465</v>
       </c>
       <c r="G40">
-        <v>-0.09575184360234092</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.002149421132471447</v>
+      </c>
+      <c r="H40">
+        <v>-0.1563366260296678</v>
+      </c>
+      <c r="I40">
+        <v>0.01466331681470973</v>
+      </c>
+      <c r="J40">
+        <v>0.03709679445426189</v>
+      </c>
+      <c r="K40">
+        <v>-0.006056411626715137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01153359723976485</v>
+        <v>0.02185490671933468</v>
       </c>
       <c r="C41">
-        <v>-0.024923028232255</v>
+        <v>0.04774867882530964</v>
       </c>
       <c r="D41">
-        <v>-0.005189709393445137</v>
+        <v>0.01470994780282088</v>
       </c>
       <c r="E41">
-        <v>-0.004514152862873701</v>
+        <v>-0.005521521900398139</v>
       </c>
       <c r="F41">
-        <v>0.01147920995557965</v>
+        <v>0.01922632108128789</v>
       </c>
       <c r="G41">
-        <v>0.03459266017631987</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.0003470315102411415</v>
+      </c>
+      <c r="H41">
+        <v>0.00115983624339946</v>
+      </c>
+      <c r="I41">
+        <v>0.02312999589580772</v>
+      </c>
+      <c r="J41">
+        <v>-0.0115285573300473</v>
+      </c>
+      <c r="K41">
+        <v>-0.03151156654912157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.005703748926973055</v>
+        <v>0.01856743953049309</v>
       </c>
       <c r="C43">
-        <v>-0.02250268770136904</v>
+        <v>0.04314708127023671</v>
       </c>
       <c r="D43">
-        <v>-0.0225050961026023</v>
+        <v>0.02888161910740596</v>
       </c>
       <c r="E43">
-        <v>-0.009155611337249842</v>
+        <v>0.01014467322020521</v>
       </c>
       <c r="F43">
-        <v>-0.003693770612548714</v>
+        <v>0.01132321183063839</v>
       </c>
       <c r="G43">
-        <v>0.0004945591816948473</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.009317510830718528</v>
+      </c>
+      <c r="H43">
+        <v>-0.008406745466512393</v>
+      </c>
+      <c r="I43">
+        <v>0.03451795071774057</v>
+      </c>
+      <c r="J43">
+        <v>-0.01081652073781417</v>
+      </c>
+      <c r="K43">
+        <v>0.00220187174326536</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01700877491925967</v>
+        <v>0.01593477383667762</v>
       </c>
       <c r="C44">
-        <v>-0.09952415219330939</v>
+        <v>0.09866261021771759</v>
       </c>
       <c r="D44">
-        <v>-0.0348633254694011</v>
+        <v>0.05713932073923131</v>
       </c>
       <c r="E44">
-        <v>0.03120721608761608</v>
+        <v>0.04238734683307947</v>
       </c>
       <c r="F44">
-        <v>-0.02304495362542436</v>
+        <v>-0.0543718048915081</v>
       </c>
       <c r="G44">
-        <v>-0.06963903996507068</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0005131412293366147</v>
+      </c>
+      <c r="H44">
+        <v>-0.05665005216451267</v>
+      </c>
+      <c r="I44">
+        <v>0.04474916191270268</v>
+      </c>
+      <c r="J44">
+        <v>0.003126056111449998</v>
+      </c>
+      <c r="K44">
+        <v>0.05886630509396783</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.004567153353561869</v>
+        <v>0.004359045969773966</v>
       </c>
       <c r="C46">
-        <v>-0.06138301193226395</v>
+        <v>0.06422113139245751</v>
       </c>
       <c r="D46">
-        <v>-0.04968441136912134</v>
+        <v>0.02800100138783554</v>
       </c>
       <c r="E46">
-        <v>0.01058127767556277</v>
+        <v>-0.006490736079421922</v>
       </c>
       <c r="F46">
-        <v>0.008280839411955992</v>
+        <v>0.003791903247224259</v>
       </c>
       <c r="G46">
-        <v>-0.06769830258252633</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01449698461883317</v>
+      </c>
+      <c r="H46">
+        <v>-0.05325367427702656</v>
+      </c>
+      <c r="I46">
+        <v>0.09394374241189872</v>
+      </c>
+      <c r="J46">
+        <v>-0.01479820708690807</v>
+      </c>
+      <c r="K46">
+        <v>0.01116599711790728</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.005002163919771417</v>
+        <v>0.0222330920158712</v>
       </c>
       <c r="C47">
-        <v>-0.05960380283288785</v>
+        <v>0.07577255768516485</v>
       </c>
       <c r="D47">
-        <v>-0.05674012484398081</v>
+        <v>0.042941264249233</v>
       </c>
       <c r="E47">
-        <v>-0.02740891894778372</v>
+        <v>-0.0064150907109703</v>
       </c>
       <c r="F47">
-        <v>0.05130345569498716</v>
+        <v>0.01712976653571611</v>
       </c>
       <c r="G47">
-        <v>-0.03034706458980378</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.006745592085898935</v>
+      </c>
+      <c r="H47">
+        <v>-0.01693898137403597</v>
+      </c>
+      <c r="I47">
+        <v>0.06635133624211019</v>
+      </c>
+      <c r="J47">
+        <v>-0.01251681753618927</v>
+      </c>
+      <c r="K47">
+        <v>-0.01530173280408149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.004316734714946167</v>
+        <v>0.01846723655674279</v>
       </c>
       <c r="C48">
-        <v>-0.05224505603645466</v>
+        <v>0.04791362498537102</v>
       </c>
       <c r="D48">
-        <v>-0.06192553202750618</v>
+        <v>0.05247147132092008</v>
       </c>
       <c r="E48">
-        <v>-0.0002913369845052132</v>
+        <v>0.007628576246934682</v>
       </c>
       <c r="F48">
-        <v>0.009873802688396015</v>
+        <v>-0.001288809916904684</v>
       </c>
       <c r="G48">
-        <v>-0.03792317826679921</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01400111650841566</v>
+      </c>
+      <c r="H48">
+        <v>-0.01619613691497382</v>
+      </c>
+      <c r="I48">
+        <v>0.1112029625870716</v>
+      </c>
+      <c r="J48">
+        <v>-0.0059743140656227</v>
+      </c>
+      <c r="K48">
+        <v>0.0450975657853229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.01595473472168829</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.03877007259040825</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.009361219995517705</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.0001684859253480207</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.05481390109370531</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.04870984354247817</v>
+      </c>
+      <c r="H49">
+        <v>-0.02991822098153435</v>
+      </c>
+      <c r="I49">
+        <v>-0.05637018261218317</v>
+      </c>
+      <c r="J49">
+        <v>0.07326682812914892</v>
+      </c>
+      <c r="K49">
+        <v>0.04438477065852352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.001177310936619737</v>
+        <v>0.01516700504171629</v>
       </c>
       <c r="C50">
-        <v>-0.0651640477763664</v>
+        <v>0.07768728758777271</v>
       </c>
       <c r="D50">
-        <v>-0.03086531923539121</v>
+        <v>0.03128743776731781</v>
       </c>
       <c r="E50">
-        <v>-0.0138728639629671</v>
+        <v>0.01393472999042127</v>
       </c>
       <c r="F50">
-        <v>-0.004043366186939413</v>
+        <v>-0.01004487128345547</v>
       </c>
       <c r="G50">
-        <v>-0.03102229327680823</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.008439392214930666</v>
+      </c>
+      <c r="H50">
+        <v>0.0003647304496592154</v>
+      </c>
+      <c r="I50">
+        <v>0.05932812221663113</v>
+      </c>
+      <c r="J50">
+        <v>0.007185928785165012</v>
+      </c>
+      <c r="K50">
+        <v>-0.05273294235086157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.00245502382514871</v>
+        <v>-0.00448349683014649</v>
       </c>
       <c r="C51">
-        <v>-0.07090557200944052</v>
+        <v>0.03508088456518815</v>
       </c>
       <c r="D51">
-        <v>-0.04430824604087714</v>
+        <v>0.02568199913339939</v>
       </c>
       <c r="E51">
-        <v>0.04005084666090555</v>
+        <v>-0.0001548964204815273</v>
       </c>
       <c r="F51">
-        <v>-0.001761899967016552</v>
+        <v>-0.02821942539536402</v>
       </c>
       <c r="G51">
-        <v>-0.01093299350528674</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.01528307421374802</v>
+      </c>
+      <c r="H51">
+        <v>-0.03769532356737578</v>
+      </c>
+      <c r="I51">
+        <v>0.1010965919095446</v>
+      </c>
+      <c r="J51">
+        <v>-0.02975829851685463</v>
+      </c>
+      <c r="K51">
+        <v>0.04615042047189818</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.02737575540249816</v>
+        <v>0.05855363478159647</v>
       </c>
       <c r="C53">
-        <v>-0.1194838525836726</v>
+        <v>0.1323476689010493</v>
       </c>
       <c r="D53">
-        <v>-0.06847876576522925</v>
+        <v>0.05811247777570793</v>
       </c>
       <c r="E53">
-        <v>-0.1206154337632448</v>
+        <v>-0.03612558050303664</v>
       </c>
       <c r="F53">
-        <v>0.05050579764548357</v>
+        <v>0.06604029566642375</v>
       </c>
       <c r="G53">
-        <v>0.07842477451801855</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02270964445284053</v>
+      </c>
+      <c r="H53">
+        <v>0.08775475107813686</v>
+      </c>
+      <c r="I53">
+        <v>-0.008702579900215633</v>
+      </c>
+      <c r="J53">
+        <v>0.001810779726712685</v>
+      </c>
+      <c r="K53">
+        <v>-0.01963881786183133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.0003650693110744845</v>
+        <v>0.0161307048400473</v>
       </c>
       <c r="C54">
-        <v>-0.06823495974900567</v>
+        <v>0.07085718168134814</v>
       </c>
       <c r="D54">
-        <v>-0.01164328718352854</v>
+        <v>0.01282697405573391</v>
       </c>
       <c r="E54">
-        <v>-0.02003964952835706</v>
+        <v>-0.005123773215095056</v>
       </c>
       <c r="F54">
-        <v>-5.531237136591891e-05</v>
+        <v>0.008862943428676192</v>
       </c>
       <c r="G54">
-        <v>-0.03280063441799871</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.00861988806945114</v>
+      </c>
+      <c r="H54">
+        <v>-0.0275390957787591</v>
+      </c>
+      <c r="I54">
+        <v>0.06044604432182846</v>
+      </c>
+      <c r="J54">
+        <v>0.01306306856713394</v>
+      </c>
+      <c r="K54">
+        <v>0.02219505001459447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01150840321990545</v>
+        <v>0.02980182019347806</v>
       </c>
       <c r="C55">
-        <v>-0.08233642738831455</v>
+        <v>0.08480451061356402</v>
       </c>
       <c r="D55">
-        <v>-0.06429909344030151</v>
+        <v>0.05386272528126573</v>
       </c>
       <c r="E55">
-        <v>-0.05093053165299439</v>
+        <v>-0.02104746456060597</v>
       </c>
       <c r="F55">
-        <v>0.03736373746621406</v>
+        <v>0.04658179331071485</v>
       </c>
       <c r="G55">
-        <v>0.01351393930997844</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02192188194544714</v>
+      </c>
+      <c r="H55">
+        <v>0.03644729320433589</v>
+      </c>
+      <c r="I55">
+        <v>0.0008096095072352396</v>
+      </c>
+      <c r="J55">
+        <v>0.001695334128722116</v>
+      </c>
+      <c r="K55">
+        <v>0.01502370338576781</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01072089100350054</v>
+        <v>0.04540985335265334</v>
       </c>
       <c r="C56">
-        <v>-0.147545983522759</v>
+        <v>0.1518031985669459</v>
       </c>
       <c r="D56">
-        <v>-0.07412171544209184</v>
+        <v>0.08250505597435046</v>
       </c>
       <c r="E56">
-        <v>-0.08516957159230598</v>
+        <v>-0.0754011722833858</v>
       </c>
       <c r="F56">
-        <v>0.07441957456465259</v>
+        <v>0.08248451814295486</v>
       </c>
       <c r="G56">
-        <v>0.1210392809416423</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02653253288784747</v>
+      </c>
+      <c r="H56">
+        <v>0.1659252611179365</v>
+      </c>
+      <c r="I56">
+        <v>-0.004466569328308459</v>
+      </c>
+      <c r="J56">
+        <v>0.00783108814234941</v>
+      </c>
+      <c r="K56">
+        <v>-0.004200277079209309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02198988263800646</v>
+        <v>0.01885332118864703</v>
       </c>
       <c r="C58">
-        <v>-0.287036867445209</v>
+        <v>0.1790744840399533</v>
       </c>
       <c r="D58">
-        <v>0.008410266100556485</v>
+        <v>0.04229862529828395</v>
       </c>
       <c r="E58">
-        <v>0.1531483612257416</v>
+        <v>0.1100591458553294</v>
       </c>
       <c r="F58">
-        <v>-0.260563832619303</v>
+        <v>-0.2978585743762243</v>
       </c>
       <c r="G58">
-        <v>0.05575379416593454</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.02248995953300387</v>
+      </c>
+      <c r="H58">
+        <v>0.06457332433017712</v>
+      </c>
+      <c r="I58">
+        <v>0.08981745952340668</v>
+      </c>
+      <c r="J58">
+        <v>-0.1167569296459293</v>
+      </c>
+      <c r="K58">
+        <v>-0.01337988955183028</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2882538543104007</v>
+        <v>0.2900496225845181</v>
       </c>
       <c r="C59">
-        <v>-0.006706517311584488</v>
+        <v>-0.04689723765288296</v>
       </c>
       <c r="D59">
-        <v>0.003472019493431212</v>
+        <v>-0.006320633220652347</v>
       </c>
       <c r="E59">
-        <v>0.05422119869679731</v>
+        <v>-0.008992424309561776</v>
       </c>
       <c r="F59">
-        <v>0.0482946551395979</v>
+        <v>-0.04784641964882214</v>
       </c>
       <c r="G59">
-        <v>0.01000614715626797</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.009113472890976835</v>
+      </c>
+      <c r="H59">
+        <v>0.0030561999777014</v>
+      </c>
+      <c r="I59">
+        <v>-0.02861924355476562</v>
+      </c>
+      <c r="J59">
+        <v>-0.01109686097602573</v>
+      </c>
+      <c r="K59">
+        <v>-0.03833959305553182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1013699209023344</v>
+        <v>0.1483160273045852</v>
       </c>
       <c r="C60">
-        <v>-0.1443170021168031</v>
+        <v>0.154204870948103</v>
       </c>
       <c r="D60">
-        <v>-0.07867980369064721</v>
+        <v>0.04202753023100449</v>
       </c>
       <c r="E60">
-        <v>-0.0909995011494252</v>
+        <v>-0.08374375452129154</v>
       </c>
       <c r="F60">
-        <v>0.1804266643794947</v>
+        <v>0.1248423514183896</v>
       </c>
       <c r="G60">
-        <v>-0.2613046703813854</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.0820052351908674</v>
+      </c>
+      <c r="H60">
+        <v>-0.2214505735714114</v>
+      </c>
+      <c r="I60">
+        <v>-0.2525443234007973</v>
+      </c>
+      <c r="J60">
+        <v>-0.01170892616283031</v>
+      </c>
+      <c r="K60">
+        <v>0.02794362183492221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.0016417047781456</v>
+        <v>0.02328702250349672</v>
       </c>
       <c r="C61">
-        <v>-0.07963047779463582</v>
+        <v>0.09784992605005105</v>
       </c>
       <c r="D61">
-        <v>-0.06434594819276343</v>
+        <v>0.05530471894773878</v>
       </c>
       <c r="E61">
-        <v>-0.0280980775707912</v>
+        <v>-0.008980082019271356</v>
       </c>
       <c r="F61">
-        <v>0.02767629089338505</v>
+        <v>0.02382424331920478</v>
       </c>
       <c r="G61">
-        <v>-0.07588596051292276</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01943520223240566</v>
+      </c>
+      <c r="H61">
+        <v>-0.0316251682420628</v>
+      </c>
+      <c r="I61">
+        <v>0.04691119642391961</v>
+      </c>
+      <c r="J61">
+        <v>0.045028717421414</v>
+      </c>
+      <c r="K61">
+        <v>0.02419161309702255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002901555489908104</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01361192174653609</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003277718242289902</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01051795698583194</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01287947857551596</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02643795026137004</v>
+      </c>
+      <c r="H62">
+        <v>-0.0192036756233826</v>
+      </c>
+      <c r="I62">
+        <v>0.01860896339438135</v>
+      </c>
+      <c r="J62">
+        <v>0.03235081951354025</v>
+      </c>
+      <c r="K62">
+        <v>-0.01654332391941065</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.001416674479700019</v>
+        <v>0.02632113108328285</v>
       </c>
       <c r="C63">
-        <v>-0.06065669068941006</v>
+        <v>0.06475868118678106</v>
       </c>
       <c r="D63">
-        <v>-0.04188573088299147</v>
+        <v>0.05860253021986756</v>
       </c>
       <c r="E63">
-        <v>-0.03487403920087383</v>
+        <v>-0.00719191708502055</v>
       </c>
       <c r="F63">
-        <v>0.002895171772512469</v>
+        <v>0.01054660662698005</v>
       </c>
       <c r="G63">
-        <v>-0.02267172055531096</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.001735630244610521</v>
+      </c>
+      <c r="H63">
+        <v>-0.008673343676445398</v>
+      </c>
+      <c r="I63">
+        <v>0.06539377342427506</v>
+      </c>
+      <c r="J63">
+        <v>0.03416158947334779</v>
+      </c>
+      <c r="K63">
+        <v>0.005173486481957131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.00608287210130993</v>
+        <v>0.01777219737274213</v>
       </c>
       <c r="C64">
-        <v>-0.07959963985605226</v>
+        <v>0.09158040524378305</v>
       </c>
       <c r="D64">
-        <v>-0.06632577314571771</v>
+        <v>0.03348434752733252</v>
       </c>
       <c r="E64">
-        <v>-0.007642397862427756</v>
+        <v>0.02624541820856058</v>
       </c>
       <c r="F64">
-        <v>-0.008554952875508963</v>
+        <v>-0.01654170155038472</v>
       </c>
       <c r="G64">
-        <v>-0.06302466570727215</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.03289512871396891</v>
+      </c>
+      <c r="H64">
+        <v>-0.07177200695059974</v>
+      </c>
+      <c r="I64">
+        <v>0.04142952771357373</v>
+      </c>
+      <c r="J64">
+        <v>0.0555321136198984</v>
+      </c>
+      <c r="K64">
+        <v>0.0634563372314491</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.001589607575988833</v>
+        <v>0.0305137200641119</v>
       </c>
       <c r="C65">
-        <v>-0.08690793039477199</v>
+        <v>0.09238875964599297</v>
       </c>
       <c r="D65">
-        <v>-0.03485564740085983</v>
+        <v>0.02235399486384978</v>
       </c>
       <c r="E65">
-        <v>0.01900135448553292</v>
+        <v>0.01899498918357181</v>
       </c>
       <c r="F65">
-        <v>0.001452202213544159</v>
+        <v>0.0001415003744464894</v>
       </c>
       <c r="G65">
-        <v>-0.07140698331726686</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01221908484186825</v>
+      </c>
+      <c r="H65">
+        <v>-0.08550618733926071</v>
+      </c>
+      <c r="I65">
+        <v>-0.01955529904828779</v>
+      </c>
+      <c r="J65">
+        <v>0.004892384079253701</v>
+      </c>
+      <c r="K65">
+        <v>0.07916911774745304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.006033164817316992</v>
+        <v>0.01954818087345252</v>
       </c>
       <c r="C66">
-        <v>-0.1678608740742349</v>
+        <v>0.1704658079957513</v>
       </c>
       <c r="D66">
-        <v>-0.04994525330758762</v>
+        <v>0.05105112872962407</v>
       </c>
       <c r="E66">
-        <v>0.03158435705231658</v>
+        <v>-0.01099649043610896</v>
       </c>
       <c r="F66">
-        <v>0.02286873133840838</v>
+        <v>-0.009888158030168369</v>
       </c>
       <c r="G66">
-        <v>-0.09904873703966958</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03453685263480229</v>
+      </c>
+      <c r="H66">
+        <v>-0.034193824108698</v>
+      </c>
+      <c r="I66">
+        <v>0.04232499690386222</v>
+      </c>
+      <c r="J66">
+        <v>0.04983367036082816</v>
+      </c>
+      <c r="K66">
+        <v>0.06079059802991179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02921476240506153</v>
+        <v>0.01850426010503563</v>
       </c>
       <c r="C67">
-        <v>-0.03279849652468216</v>
+        <v>0.05042578051930328</v>
       </c>
       <c r="D67">
-        <v>-0.06085163651689927</v>
+        <v>0.04020888749232337</v>
       </c>
       <c r="E67">
-        <v>-0.05211253918211413</v>
+        <v>0.02768447593161391</v>
       </c>
       <c r="F67">
-        <v>0.01573664458814527</v>
+        <v>0.01812116240360282</v>
       </c>
       <c r="G67">
-        <v>-0.05398361110263912</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02902327074361985</v>
+      </c>
+      <c r="H67">
+        <v>-0.04605087101688001</v>
+      </c>
+      <c r="I67">
+        <v>0.04715716989609062</v>
+      </c>
+      <c r="J67">
+        <v>-0.04929157678287459</v>
+      </c>
+      <c r="K67">
+        <v>-0.04497301647971954</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2932289832664141</v>
+        <v>0.2938402520670539</v>
       </c>
       <c r="C68">
-        <v>0.01480662978322715</v>
+        <v>-0.07139399963051667</v>
       </c>
       <c r="D68">
-        <v>-0.00839812397013971</v>
+        <v>-0.02358407649875896</v>
       </c>
       <c r="E68">
-        <v>0.02552140296344305</v>
+        <v>-0.0008074491904161273</v>
       </c>
       <c r="F68">
-        <v>0.008934177841289243</v>
+        <v>-0.04018107650086798</v>
       </c>
       <c r="G68">
-        <v>-0.008567139985750859</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.03306235942436818</v>
+      </c>
+      <c r="H68">
+        <v>0.01674634971630091</v>
+      </c>
+      <c r="I68">
+        <v>0.04761178485419831</v>
+      </c>
+      <c r="J68">
+        <v>0.01632500331853026</v>
+      </c>
+      <c r="K68">
+        <v>-0.05517677193949086</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.004587034624937577</v>
+        <v>0.008607314054393264</v>
       </c>
       <c r="C69">
-        <v>-0.04888018285303562</v>
+        <v>0.04663941009798338</v>
       </c>
       <c r="D69">
-        <v>-0.05434811827415284</v>
+        <v>0.02441007084703172</v>
       </c>
       <c r="E69">
-        <v>-0.0371315727218254</v>
+        <v>-0.007378011433437964</v>
       </c>
       <c r="F69">
-        <v>0.003617755883773595</v>
+        <v>0.01142879141064689</v>
       </c>
       <c r="G69">
-        <v>-0.02773351568247497</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.005184139505768805</v>
+      </c>
+      <c r="H69">
+        <v>-0.02723395450484671</v>
+      </c>
+      <c r="I69">
+        <v>0.03092482418144416</v>
+      </c>
+      <c r="J69">
+        <v>-0.01459218552831871</v>
+      </c>
+      <c r="K69">
+        <v>-0.01606755864323689</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.289432914622361</v>
+        <v>0.2760997030049629</v>
       </c>
       <c r="C71">
-        <v>0.03193771574606997</v>
+        <v>-0.07575993530592492</v>
       </c>
       <c r="D71">
-        <v>0.006911606072757065</v>
+        <v>-0.02286838723187656</v>
       </c>
       <c r="E71">
-        <v>0.02079498570500262</v>
+        <v>0.02819016358852273</v>
       </c>
       <c r="F71">
-        <v>-0.01547856941234237</v>
+        <v>-0.06282319305554229</v>
       </c>
       <c r="G71">
-        <v>0.002089211324732122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.009386738097159989</v>
+      </c>
+      <c r="H71">
+        <v>0.01514524916528065</v>
+      </c>
+      <c r="I71">
+        <v>0.0612062234967166</v>
+      </c>
+      <c r="J71">
+        <v>-0.03458349935690362</v>
+      </c>
+      <c r="K71">
+        <v>-0.1096529117143069</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.006276589423182972</v>
+        <v>0.05364585339974731</v>
       </c>
       <c r="C72">
-        <v>-0.149159165841328</v>
+        <v>0.1401656640470917</v>
       </c>
       <c r="D72">
-        <v>-0.07008366472534945</v>
+        <v>0.04941762637873037</v>
       </c>
       <c r="E72">
-        <v>-0.01009034166688633</v>
+        <v>-0.02801003555810726</v>
       </c>
       <c r="F72">
-        <v>-0.04608010489333024</v>
+        <v>0.03032443005543333</v>
       </c>
       <c r="G72">
-        <v>-0.1337655968287735</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02694177941431572</v>
+      </c>
+      <c r="H72">
+        <v>-0.01232909652300449</v>
+      </c>
+      <c r="I72">
+        <v>0.05261517076583377</v>
+      </c>
+      <c r="J72">
+        <v>0.0323063320215206</v>
+      </c>
+      <c r="K72">
+        <v>0.1158620850061811</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.0620389504375605</v>
+        <v>0.1505373574949402</v>
       </c>
       <c r="C73">
-        <v>-0.1051086369911331</v>
+        <v>0.1935589975832391</v>
       </c>
       <c r="D73">
-        <v>-0.1134440599003778</v>
+        <v>0.08575396776246795</v>
       </c>
       <c r="E73">
-        <v>-0.175486718976434</v>
+        <v>-0.06897782376861378</v>
       </c>
       <c r="F73">
-        <v>0.1960064357091793</v>
+        <v>0.2374669184585105</v>
       </c>
       <c r="G73">
-        <v>-0.3192927245819061</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.04994169214148087</v>
+      </c>
+      <c r="H73">
+        <v>-0.340241505351887</v>
+      </c>
+      <c r="I73">
+        <v>-0.3295290058148042</v>
+      </c>
+      <c r="J73">
+        <v>-0.03382253135144199</v>
+      </c>
+      <c r="K73">
+        <v>-0.1210608848612457</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.007266042262398213</v>
+        <v>0.03775476442541961</v>
       </c>
       <c r="C74">
-        <v>-0.07950497372638643</v>
+        <v>0.09961195495932101</v>
       </c>
       <c r="D74">
-        <v>-0.07094013187522796</v>
+        <v>0.04662896881372521</v>
       </c>
       <c r="E74">
-        <v>-0.06880817239207014</v>
+        <v>-0.005616990978278782</v>
       </c>
       <c r="F74">
-        <v>0.04303473986977226</v>
+        <v>0.03909413524435339</v>
       </c>
       <c r="G74">
-        <v>0.04534188941267839</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.04324684317743967</v>
+      </c>
+      <c r="H74">
+        <v>0.04190968522534543</v>
+      </c>
+      <c r="I74">
+        <v>0.02240762172228516</v>
+      </c>
+      <c r="J74">
+        <v>-1.40999462499614e-05</v>
+      </c>
+      <c r="K74">
+        <v>0.01319444318871192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03502459944022329</v>
+        <v>0.06134122395939643</v>
       </c>
       <c r="C75">
-        <v>-0.141919549908405</v>
+        <v>0.1661167633277665</v>
       </c>
       <c r="D75">
-        <v>-0.07941068673380686</v>
+        <v>0.08433416285589534</v>
       </c>
       <c r="E75">
-        <v>-0.1451874703359735</v>
+        <v>0.004891600040242584</v>
       </c>
       <c r="F75">
-        <v>0.03370764859603513</v>
+        <v>0.1135101929310767</v>
       </c>
       <c r="G75">
-        <v>0.1826922230395717</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.015047245471178</v>
+      </c>
+      <c r="H75">
+        <v>0.2166469891817788</v>
+      </c>
+      <c r="I75">
+        <v>0.01990692677970918</v>
+      </c>
+      <c r="J75">
+        <v>0.001980455085652736</v>
+      </c>
+      <c r="K75">
+        <v>-0.1292877216503303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.0116404397300301</v>
+        <v>0.04258108586274345</v>
       </c>
       <c r="C76">
-        <v>-0.1046654148936765</v>
+        <v>0.1234315234475318</v>
       </c>
       <c r="D76">
-        <v>-0.0636215223725916</v>
+        <v>0.0744953000973822</v>
       </c>
       <c r="E76">
-        <v>-0.08240820310959764</v>
+        <v>-0.03011156997574206</v>
       </c>
       <c r="F76">
-        <v>0.0606531550433465</v>
+        <v>0.07789688062938933</v>
       </c>
       <c r="G76">
-        <v>0.04496493605410495</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.006071021863306251</v>
+      </c>
+      <c r="H76">
+        <v>0.0807592369387494</v>
+      </c>
+      <c r="I76">
+        <v>-0.002479045312673077</v>
+      </c>
+      <c r="J76">
+        <v>0.05677636255656834</v>
+      </c>
+      <c r="K76">
+        <v>0.005763833026793684</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08840108568650296</v>
+        <v>0.05232752953974533</v>
       </c>
       <c r="C77">
-        <v>-0.3840177699806457</v>
+        <v>0.4034920565648268</v>
       </c>
       <c r="D77">
-        <v>0.8361320706370943</v>
+        <v>-0.8977970684964114</v>
       </c>
       <c r="E77">
-        <v>-0.2691351965504382</v>
+        <v>0.01757357785044578</v>
       </c>
       <c r="F77">
-        <v>0.1216020269793703</v>
+        <v>0.07962846239748957</v>
       </c>
       <c r="G77">
-        <v>-0.0194354965893698</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02881835528285134</v>
+      </c>
+      <c r="H77">
+        <v>0.03291007523128663</v>
+      </c>
+      <c r="I77">
+        <v>0.05022537055265045</v>
+      </c>
+      <c r="J77">
+        <v>0.05717037953311937</v>
+      </c>
+      <c r="K77">
+        <v>-0.02955195042694763</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02375441523351926</v>
+        <v>0.03663411286227056</v>
       </c>
       <c r="C78">
-        <v>-0.1268295629348024</v>
+        <v>0.1138956148791377</v>
       </c>
       <c r="D78">
-        <v>-0.1882948420721855</v>
+        <v>0.09494139997002256</v>
       </c>
       <c r="E78">
-        <v>0.0932061425052159</v>
+        <v>-0.03609131291415976</v>
       </c>
       <c r="F78">
-        <v>0.1363697651897473</v>
+        <v>-0.003228284960216476</v>
       </c>
       <c r="G78">
-        <v>0.1293904248310546</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.03296922260673856</v>
+      </c>
+      <c r="H78">
+        <v>0.107996074249555</v>
+      </c>
+      <c r="I78">
+        <v>0.07754124952314222</v>
+      </c>
+      <c r="J78">
+        <v>-0.09557492835659223</v>
+      </c>
+      <c r="K78">
+        <v>0.1456512578026988</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02113962442913185</v>
+        <v>0.05659155771728144</v>
       </c>
       <c r="C79">
-        <v>-0.1673902851922827</v>
+        <v>0.1439342220318736</v>
       </c>
       <c r="D79">
-        <v>-0.1207246844881478</v>
+        <v>0.06971957325286569</v>
       </c>
       <c r="E79">
-        <v>-0.1072076143072141</v>
+        <v>-0.04233761874029235</v>
       </c>
       <c r="F79">
-        <v>0.07095570314179367</v>
+        <v>0.06648628681671821</v>
       </c>
       <c r="G79">
-        <v>0.2594874338187763</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.04817088182114494</v>
+      </c>
+      <c r="H79">
+        <v>0.236626607962822</v>
+      </c>
+      <c r="I79">
+        <v>0.06640821740922792</v>
+      </c>
+      <c r="J79">
+        <v>-0.02887068738032191</v>
+      </c>
+      <c r="K79">
+        <v>-0.04552628772049176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.007240272327058811</v>
+        <v>0.01960006533988609</v>
       </c>
       <c r="C80">
-        <v>-0.05393378560521261</v>
+        <v>0.04454045341048153</v>
       </c>
       <c r="D80">
-        <v>-0.05136447824818387</v>
+        <v>0.0378345123094466</v>
       </c>
       <c r="E80">
-        <v>0.04067132246570109</v>
+        <v>-0.03501351299943289</v>
       </c>
       <c r="F80">
-        <v>0.01095540320132612</v>
+        <v>-0.0439076265619534</v>
       </c>
       <c r="G80">
-        <v>-0.005709507191994387</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.03129649538840476</v>
+      </c>
+      <c r="H80">
+        <v>-0.07185647131464108</v>
+      </c>
+      <c r="I80">
+        <v>-0.04851579664509524</v>
+      </c>
+      <c r="J80">
+        <v>-0.03149431503066992</v>
+      </c>
+      <c r="K80">
+        <v>-0.0380887854707997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.0002366517902766894</v>
+        <v>0.01589665218469541</v>
       </c>
       <c r="C81">
-        <v>-0.07711045882181899</v>
+        <v>0.09662446802100212</v>
       </c>
       <c r="D81">
-        <v>-0.07299217240020757</v>
+        <v>0.05677495335346219</v>
       </c>
       <c r="E81">
-        <v>-0.07939176578081412</v>
+        <v>-0.02919271785469596</v>
       </c>
       <c r="F81">
-        <v>0.05134155507528921</v>
+        <v>0.03776271797024855</v>
       </c>
       <c r="G81">
-        <v>0.08137353246320314</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.01610098612932428</v>
+      </c>
+      <c r="H81">
+        <v>0.09724791149380167</v>
+      </c>
+      <c r="I81">
+        <v>0.07386999005198269</v>
+      </c>
+      <c r="J81">
+        <v>-0.02251343521556253</v>
+      </c>
+      <c r="K81">
+        <v>-0.04234648758345192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01325295574735392</v>
+        <v>0.04401695494482746</v>
       </c>
       <c r="C82">
-        <v>-0.0768571841152122</v>
+        <v>0.1040328139246575</v>
       </c>
       <c r="D82">
-        <v>-0.07146889679746404</v>
+        <v>0.06514969244846665</v>
       </c>
       <c r="E82">
-        <v>-0.09255034970615857</v>
+        <v>-0.03189852911411421</v>
       </c>
       <c r="F82">
-        <v>0.04947021730906092</v>
+        <v>0.06459221951919149</v>
       </c>
       <c r="G82">
-        <v>0.03943409439811353</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.01804289038730715</v>
+      </c>
+      <c r="H82">
+        <v>0.08077978093767875</v>
+      </c>
+      <c r="I82">
+        <v>0.01500160565776445</v>
+      </c>
+      <c r="J82">
+        <v>0.02091997392734342</v>
+      </c>
+      <c r="K82">
+        <v>-0.008829921422331723</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.001843090710540575</v>
+        <v>-0.0006842569587284699</v>
       </c>
       <c r="C83">
-        <v>-0.02419401945436698</v>
+        <v>-0.02319361883275939</v>
       </c>
       <c r="D83">
-        <v>0.1242476717973033</v>
+        <v>-0.05969126755288653</v>
       </c>
       <c r="E83">
-        <v>0.6009619514465397</v>
+        <v>-0.8898355667492799</v>
       </c>
       <c r="F83">
-        <v>0.6842639932729803</v>
+        <v>-0.3292597098118002</v>
       </c>
       <c r="G83">
-        <v>0.1396362316658552</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.161816893902331</v>
+      </c>
+      <c r="H83">
+        <v>0.03790860879792651</v>
+      </c>
+      <c r="I83">
+        <v>-0.09975537046433879</v>
+      </c>
+      <c r="J83">
+        <v>0.05168612792861771</v>
+      </c>
+      <c r="K83">
+        <v>0.04122125745244775</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.01148164223718079</v>
+        <v>0.01356261900544936</v>
       </c>
       <c r="C84">
-        <v>-0.091355008350628</v>
+        <v>0.06481318982761448</v>
       </c>
       <c r="D84">
-        <v>-0.0382904563796349</v>
+        <v>0.08558214150125673</v>
       </c>
       <c r="E84">
-        <v>0.05834062124632527</v>
+        <v>0.1932854345538684</v>
       </c>
       <c r="F84">
-        <v>-0.1505923710707146</v>
+        <v>-0.1645069075118354</v>
       </c>
       <c r="G84">
-        <v>0.001052994384980507</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.6540071057753277</v>
+      </c>
+      <c r="H84">
+        <v>0.04284714085992537</v>
+      </c>
+      <c r="I84">
+        <v>-0.1489474154075395</v>
+      </c>
+      <c r="J84">
+        <v>0.5813349356984115</v>
+      </c>
+      <c r="K84">
+        <v>-0.1946117707111789</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.003763701619658705</v>
+        <v>0.02864172865700232</v>
       </c>
       <c r="C85">
-        <v>-0.1137622197519597</v>
+        <v>0.116409405627161</v>
       </c>
       <c r="D85">
-        <v>-0.07850466570963016</v>
+        <v>0.08257880695966099</v>
       </c>
       <c r="E85">
-        <v>-0.1029728303322077</v>
+        <v>-0.05073641509337153</v>
       </c>
       <c r="F85">
-        <v>0.07000405551950052</v>
+        <v>0.1196083365825614</v>
       </c>
       <c r="G85">
-        <v>0.2016892825556096</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.02286742670716244</v>
+      </c>
+      <c r="H85">
+        <v>0.2254967569676574</v>
+      </c>
+      <c r="I85">
+        <v>0.01419620798435824</v>
+      </c>
+      <c r="J85">
+        <v>0.03916502678504939</v>
+      </c>
+      <c r="K85">
+        <v>-0.08387452906755476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01903627442058441</v>
+        <v>0.01519849222798193</v>
       </c>
       <c r="C86">
-        <v>-0.08338780289864869</v>
+        <v>0.08118958353897755</v>
       </c>
       <c r="D86">
-        <v>0.003027540189355729</v>
+        <v>0.0305020180640921</v>
       </c>
       <c r="E86">
-        <v>0.007110156189261084</v>
+        <v>0.01743828189146945</v>
       </c>
       <c r="F86">
-        <v>-0.02055133649422663</v>
+        <v>-0.07025581884702499</v>
       </c>
       <c r="G86">
-        <v>-0.07841135599631449</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0154880606303095</v>
+      </c>
+      <c r="H86">
+        <v>0.04022703528029795</v>
+      </c>
+      <c r="I86">
+        <v>-0.003408471280434603</v>
+      </c>
+      <c r="J86">
+        <v>-0.2055489697379659</v>
+      </c>
+      <c r="K86">
+        <v>-0.0692583981613749</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.02035494694674273</v>
+        <v>0.02636326658816273</v>
       </c>
       <c r="C87">
-        <v>-0.1514419306708374</v>
+        <v>0.1207023831551219</v>
       </c>
       <c r="D87">
-        <v>-0.04144844841274158</v>
+        <v>0.02131842375891486</v>
       </c>
       <c r="E87">
-        <v>0.09008414347072351</v>
+        <v>0.001807958861203916</v>
       </c>
       <c r="F87">
-        <v>-0.04770366549429775</v>
+        <v>-0.0507642616766374</v>
       </c>
       <c r="G87">
-        <v>-0.006389471268980818</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02584653088564907</v>
+      </c>
+      <c r="H87">
+        <v>0.001852256982577467</v>
+      </c>
+      <c r="I87">
+        <v>0.03929317250517381</v>
+      </c>
+      <c r="J87">
+        <v>0.04833148046154034</v>
+      </c>
+      <c r="K87">
+        <v>0.08356744756475651</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.005564832800055187</v>
+        <v>0.04034391591885637</v>
       </c>
       <c r="C88">
-        <v>-0.03954022811517138</v>
+        <v>0.0604758868092634</v>
       </c>
       <c r="D88">
-        <v>-0.03793189452037041</v>
+        <v>0.04127592963816717</v>
       </c>
       <c r="E88">
-        <v>-0.05476187808426848</v>
+        <v>-0.002946789548663155</v>
       </c>
       <c r="F88">
-        <v>0.004416889548152584</v>
+        <v>0.02376802207797819</v>
       </c>
       <c r="G88">
-        <v>-0.01203200068826643</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.0252814307912868</v>
+      </c>
+      <c r="H88">
+        <v>-0.02267158651604129</v>
+      </c>
+      <c r="I88">
+        <v>-0.004600007385857061</v>
+      </c>
+      <c r="J88">
+        <v>-0.0002648903014601044</v>
+      </c>
+      <c r="K88">
+        <v>-0.0009431755969963219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4008842959076704</v>
+        <v>0.3921860718986306</v>
       </c>
       <c r="C89">
-        <v>0.0590688948670437</v>
+        <v>-0.1160913441712118</v>
       </c>
       <c r="D89">
-        <v>-0.072429269065694</v>
+        <v>-0.03774591526544001</v>
       </c>
       <c r="E89">
-        <v>0.05168616466138865</v>
+        <v>0.04514848951125673</v>
       </c>
       <c r="F89">
-        <v>-0.09406810252257913</v>
+        <v>-0.03347057848710838</v>
       </c>
       <c r="G89">
-        <v>0.02022934980845257</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.00419636911455024</v>
+      </c>
+      <c r="H89">
+        <v>-0.03432916212968403</v>
+      </c>
+      <c r="I89">
+        <v>-0.004990657059914733</v>
+      </c>
+      <c r="J89">
+        <v>0.1681857864488163</v>
+      </c>
+      <c r="K89">
+        <v>0.7410232825545721</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3073842444054087</v>
+        <v>0.3157638178095705</v>
       </c>
       <c r="C90">
-        <v>0.01297214257645486</v>
+        <v>-0.07692153384148138</v>
       </c>
       <c r="D90">
-        <v>-0.0057699160496225</v>
+        <v>-0.0187153557725882</v>
       </c>
       <c r="E90">
-        <v>0.07098159485879417</v>
+        <v>0.004262509192177766</v>
       </c>
       <c r="F90">
-        <v>0.04443445183362918</v>
+        <v>-0.04038718527700252</v>
       </c>
       <c r="G90">
-        <v>-0.03126054114920644</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.0141680388828139</v>
+      </c>
+      <c r="H90">
+        <v>0.004484408658321267</v>
+      </c>
+      <c r="I90">
+        <v>0.01502734781750572</v>
+      </c>
+      <c r="J90">
+        <v>-0.005680441173402826</v>
+      </c>
+      <c r="K90">
+        <v>-0.1002810653814439</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02127043564321632</v>
+        <v>0.05390010861041489</v>
       </c>
       <c r="C91">
-        <v>-0.08015887945418541</v>
+        <v>0.07888320821877454</v>
       </c>
       <c r="D91">
-        <v>-0.06338547073421248</v>
+        <v>0.05320266855980795</v>
       </c>
       <c r="E91">
-        <v>-0.05602319029300731</v>
+        <v>-0.05704292511717533</v>
       </c>
       <c r="F91">
-        <v>0.05685956426073537</v>
+        <v>0.03917051205599539</v>
       </c>
       <c r="G91">
-        <v>0.07327038468976256</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02277880258869626</v>
+      </c>
+      <c r="H91">
+        <v>0.08697429162506676</v>
+      </c>
+      <c r="I91">
+        <v>-0.01212048674389687</v>
+      </c>
+      <c r="J91">
+        <v>0.01909118462741146</v>
+      </c>
+      <c r="K91">
+        <v>-0.01717126603853868</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.385250368813161</v>
+        <v>0.3512703720194885</v>
       </c>
       <c r="C92">
-        <v>0.05468255815981009</v>
+        <v>-0.1216349409697028</v>
       </c>
       <c r="D92">
-        <v>0.01553650074908852</v>
+        <v>-0.05445168965560127</v>
       </c>
       <c r="E92">
-        <v>-0.01802841260608591</v>
+        <v>0.05177804450276988</v>
       </c>
       <c r="F92">
-        <v>-0.1209676303871361</v>
+        <v>-0.04095608279694165</v>
       </c>
       <c r="G92">
-        <v>0.01884204948780985</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01205155088448508</v>
+      </c>
+      <c r="H92">
+        <v>0.01188055586687928</v>
+      </c>
+      <c r="I92">
+        <v>0.07734287390779539</v>
+      </c>
+      <c r="J92">
+        <v>-0.03630590091572629</v>
+      </c>
+      <c r="K92">
+        <v>-0.135089638884667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3077648655378934</v>
+        <v>0.30927757452507</v>
       </c>
       <c r="C93">
-        <v>0.06632232547119551</v>
+        <v>-0.1165980214467084</v>
       </c>
       <c r="D93">
-        <v>-0.01352813722117542</v>
+        <v>-0.008134090564505017</v>
       </c>
       <c r="E93">
-        <v>0.06377461290586209</v>
+        <v>0.01999734617403854</v>
       </c>
       <c r="F93">
-        <v>-0.03763390177202836</v>
+        <v>-0.0437600114816659</v>
       </c>
       <c r="G93">
-        <v>0.005341988994388111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.01429083543135877</v>
+      </c>
+      <c r="H93">
+        <v>0.03304506904324438</v>
+      </c>
+      <c r="I93">
+        <v>0.02829719048788931</v>
+      </c>
+      <c r="J93">
+        <v>-0.04595675005415102</v>
+      </c>
+      <c r="K93">
+        <v>-0.1102820909176753</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.02960949165121651</v>
+        <v>0.07937128285177775</v>
       </c>
       <c r="C94">
-        <v>-0.1945471613707218</v>
+        <v>0.1630707768382921</v>
       </c>
       <c r="D94">
-        <v>-0.1400400050288658</v>
+        <v>0.111932964603269</v>
       </c>
       <c r="E94">
-        <v>-0.1750925437087633</v>
+        <v>-0.07157191490555424</v>
       </c>
       <c r="F94">
-        <v>0.03982384993587141</v>
+        <v>0.1385922849170451</v>
       </c>
       <c r="G94">
-        <v>0.6036139758586673</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.04170023142786206</v>
+      </c>
+      <c r="H94">
+        <v>0.5720867841144568</v>
+      </c>
+      <c r="I94">
+        <v>-0.1471954559919165</v>
+      </c>
+      <c r="J94">
+        <v>0.007194476596613738</v>
+      </c>
+      <c r="K94">
+        <v>0.04802912289730712</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.01832311874532766</v>
+        <v>0.04211971149874383</v>
       </c>
       <c r="C95">
-        <v>-0.1114544933389454</v>
+        <v>0.1282762448617074</v>
       </c>
       <c r="D95">
-        <v>-0.05343423558493049</v>
+        <v>0.06594291677103015</v>
       </c>
       <c r="E95">
-        <v>-0.05650096805873749</v>
+        <v>0.0113975527332571</v>
       </c>
       <c r="F95">
-        <v>0.09091207344308064</v>
+        <v>0.07333062085327967</v>
       </c>
       <c r="G95">
-        <v>-0.06916446063016175</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.04380823121676507</v>
+      </c>
+      <c r="H95">
+        <v>-0.04135454581919686</v>
+      </c>
+      <c r="I95">
+        <v>0.02925358198760653</v>
+      </c>
+      <c r="J95">
+        <v>0.148317180615033</v>
+      </c>
+      <c r="K95">
+        <v>0.08803021921679616</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.0001770649207871914</v>
+        <v>0.01657228490905226</v>
       </c>
       <c r="C97">
-        <v>0.0003593893815827981</v>
+        <v>0.01715049892134006</v>
       </c>
       <c r="D97">
-        <v>-9.895187287766997e-05</v>
+        <v>-0.006970993348501507</v>
       </c>
       <c r="E97">
-        <v>-0.004763675859743744</v>
+        <v>0.03381437247065871</v>
       </c>
       <c r="F97">
-        <v>-0.001953069090281631</v>
+        <v>0.005399546387448492</v>
       </c>
       <c r="G97">
-        <v>-0.003863417423791897</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.06249431953938429</v>
+      </c>
+      <c r="H97">
+        <v>-0.02297050571879779</v>
+      </c>
+      <c r="I97">
+        <v>0.01350055354208147</v>
+      </c>
+      <c r="J97">
+        <v>-0.110790471657281</v>
+      </c>
+      <c r="K97">
+        <v>0.06836975551427937</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.07458042771232858</v>
+        <v>0.1344169681980185</v>
       </c>
       <c r="C98">
-        <v>-0.1335251113932092</v>
+        <v>0.1597957288012148</v>
       </c>
       <c r="D98">
-        <v>-0.1351504946306597</v>
+        <v>0.09077813374508795</v>
       </c>
       <c r="E98">
-        <v>-0.1086954099401269</v>
+        <v>-0.09234713225965911</v>
       </c>
       <c r="F98">
-        <v>0.1398963846228975</v>
+        <v>0.2243762752401554</v>
       </c>
       <c r="G98">
-        <v>-0.185290335425829</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.05306601011031062</v>
+      </c>
+      <c r="H98">
+        <v>-0.2614691836112601</v>
+      </c>
+      <c r="I98">
+        <v>-0.3561586282482408</v>
+      </c>
+      <c r="J98">
+        <v>-0.02517325810547006</v>
+      </c>
+      <c r="K98">
+        <v>-0.1176939063820516</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02619966340371204</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.05678363504309741</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.008839411098786975</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.09912598509209375</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.06462568780632058</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.6419462359016571</v>
+      </c>
+      <c r="H99">
+        <v>0.04010614218336783</v>
+      </c>
+      <c r="I99">
+        <v>-0.1524069210724501</v>
+      </c>
+      <c r="J99">
+        <v>-0.6408591473079597</v>
+      </c>
+      <c r="K99">
+        <v>0.1853657896191984</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.005914271189818584</v>
+        <v>0.01592207776053874</v>
       </c>
       <c r="C101">
-        <v>-0.07894873133772157</v>
+        <v>0.08280703367212132</v>
       </c>
       <c r="D101">
-        <v>-0.04939442533447428</v>
+        <v>0.04915714405287907</v>
       </c>
       <c r="E101">
-        <v>0.005459000620275122</v>
+        <v>-0.03877575871589117</v>
       </c>
       <c r="F101">
-        <v>0.03533499319871474</v>
+        <v>-0.01931331322088693</v>
       </c>
       <c r="G101">
-        <v>-0.12385662147465</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.06588046202783165</v>
+      </c>
+      <c r="H101">
+        <v>-0.163288810568404</v>
+      </c>
+      <c r="I101">
+        <v>0.2567473283899464</v>
+      </c>
+      <c r="J101">
+        <v>0.01855740697377019</v>
+      </c>
+      <c r="K101">
+        <v>-0.008049054563014059</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.002964848264276289</v>
+        <v>0.001526164050445446</v>
       </c>
       <c r="C102">
-        <v>-0.01728827265084072</v>
+        <v>0.006991323921916254</v>
       </c>
       <c r="D102">
-        <v>0.0009480579141452166</v>
+        <v>-0.001974407672838055</v>
       </c>
       <c r="E102">
-        <v>-0.01876053561160081</v>
+        <v>-0.003685596736823901</v>
       </c>
       <c r="F102">
-        <v>0.01872337862892172</v>
+        <v>0.004539159058539092</v>
       </c>
       <c r="G102">
-        <v>0.01024480368949286</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.001444139807228496</v>
+      </c>
+      <c r="H102">
+        <v>0.004220729802635314</v>
+      </c>
+      <c r="I102">
+        <v>0.008259125656401559</v>
+      </c>
+      <c r="J102">
+        <v>0.0002653072712489397</v>
+      </c>
+      <c r="K102">
+        <v>0.01591802629118481</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
